--- a/文档/参数表格文件样例.xlsx
+++ b/文档/参数表格文件样例.xlsx
@@ -516,9 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD143"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,366 +1448,6 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="2">
-        <v>101</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="2">
-        <v>102</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="2">
-        <v>103</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="2">
-        <v>104</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="2">
-        <v>105</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="2">
-        <v>106</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="2">
-        <v>107</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="2">
-        <v>108</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="2">
-        <v>109</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="2">
-        <v>110</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="2">
-        <v>111</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="2">
-        <v>112</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="2">
-        <v>113</v>
-      </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="2">
-        <v>114</v>
-      </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="2">
-        <v>115</v>
-      </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="2">
-        <v>116</v>
-      </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="2">
-        <v>117</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="2">
-        <v>118</v>
-      </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="2">
-        <v>119</v>
-      </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="2">
-        <v>120</v>
-      </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="2">
-        <v>121</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="2">
-        <v>122</v>
-      </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="2">
-        <v>123</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="2">
-        <v>124</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="2">
-        <v>125</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="2">
-        <v>126</v>
-      </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="2">
-        <v>127</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="2">
-        <v>128</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="2">
-        <v>129</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="2">
-        <v>130</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="2">
-        <v>131</v>
-      </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="2">
-        <v>132</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="2">
-        <v>133</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="2">
-        <v>134</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="2">
-        <v>135</v>
-      </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="2">
-        <v>136</v>
-      </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="2">
-        <v>137</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="2">
-        <v>138</v>
-      </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="2">
-        <v>139</v>
-      </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="2">
-        <v>140</v>
-      </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
